--- a/excel/NASAトライアル_回答記入シート.xlsx
+++ b/excel/NASAトライアル_回答記入シート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N_hashimoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B577929-A0C2-4A16-9C69-781269B2F3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2FEF0-ADCA-4C06-A4FB-8FF1E1F0BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>アイテム</t>
     <phoneticPr fontId="2"/>
@@ -218,6 +218,14 @@
     <t>56 ～ 70点</t>
     <rPh sb="7" eb="8">
       <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個人
+トライアル</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1055,7 +1063,9 @@
     </row>
     <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
